--- a/reference/fix/company_fix/postal_error_fixed.xlsx
+++ b/reference/fix/company_fix/postal_error_fixed.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\MAGANG\Program LINC\linc-report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B707245B-F65B-45A2-AA2C-5E0A50A76954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="postal_error" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="527">
   <si>
     <t>MYRKETAPANG</t>
   </si>
@@ -1601,16 +1595,13 @@
   </si>
   <si>
     <t>REVISION</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1753,7 +1744,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1931,6 +1922,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2131,13 +2128,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2382,19 +2381,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J294" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:J294" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J294" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:J294"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ROW"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="COMPANY REFERENCE"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LOCATION" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ADDRESS 1" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ADDRESS 2" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ADDRESS 3" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="LATITUDE" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LONGITUDE" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="POSTAL CODE" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="REVISION" dataDxfId="0"/>
+    <tableColumn id="1" name="ROW"/>
+    <tableColumn id="2" name="COMPANY REFERENCE"/>
+    <tableColumn id="3" name="LOCATION" dataDxfId="7"/>
+    <tableColumn id="4" name="ADDRESS 1" dataDxfId="6"/>
+    <tableColumn id="5" name="ADDRESS 2" dataDxfId="5"/>
+    <tableColumn id="6" name="ADDRESS 3" dataDxfId="4"/>
+    <tableColumn id="7" name="LATITUDE" dataDxfId="3"/>
+    <tableColumn id="8" name="LONGITUDE" dataDxfId="2"/>
+    <tableColumn id="9" name="POSTAL CODE" dataDxfId="1"/>
+    <tableColumn id="10" name="REVISION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2689,21 +2688,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="3" width="35.7109375" customWidth="1"/>
@@ -2715,7 +2714,7 @@
     <col min="9" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>525</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>399</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>78821</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>415</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>448</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>480</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>16430</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>503</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>507</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>40391</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>518</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>552</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>40553</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>585</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>39372</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>593</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>600</v>
       </c>
@@ -3099,7 +3098,7 @@
         <v>41371</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>618</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>40553</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>644</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>684</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>736</v>
       </c>
@@ -3227,7 +3226,7 @@
         <v>16820</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>742</v>
       </c>
@@ -3259,39 +3258,39 @@
         <v>43261</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:10" s="6" customFormat="1">
+      <c r="A18" s="6">
         <v>744</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
         <v>40352</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="7">
+        <v>40226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>795</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>42211</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>841</v>
       </c>
@@ -3355,7 +3354,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>861</v>
       </c>
@@ -3387,7 +3386,7 @@
         <v>17510</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>863</v>
       </c>
@@ -3419,39 +3418,39 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:10" s="6" customFormat="1">
+      <c r="A23" s="6">
         <v>873</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
         <v>11222</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="7">
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>913</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>16433</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>917</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>15810</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>960</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>43261</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>980</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>15810</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>996</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>999</v>
       </c>
@@ -3643,7 +3642,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>1006</v>
       </c>
@@ -3675,7 +3674,7 @@
         <v>15810</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>1034</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>16416</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>1040</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>1094</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>39372</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>1099</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>42416</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>1114</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>1146</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>40112</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>1189</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>1200</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>1225</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>41271</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>1231</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>40294</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>1237</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>1256</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>1289</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>1304</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>1356</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>15720</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>1358</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>40391</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>1380</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>1389</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>1429</v>
       </c>
@@ -4283,7 +4282,7 @@
         <v>16670</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>1433</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>1453</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>15820</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>1468</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>1469</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>1501</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>16340</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>1505</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>1521</v>
       </c>
@@ -4507,7 +4506,7 @@
         <v>16370</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>1540</v>
       </c>
@@ -4539,7 +4538,7 @@
         <v>40554</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>1548</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>15710</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>1603</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>16416</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>1610</v>
       </c>
@@ -4635,7 +4634,7 @@
         <v>16640</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>1625</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>1674</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>43261</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>1699</v>
       </c>
@@ -4731,7 +4730,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>1712</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>1714</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>78821</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>1732</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>16120</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>1753</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>1814</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>16710</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>1815</v>
       </c>
@@ -4923,7 +4922,7 @@
         <v>16770</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>1816</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>1846</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>40562</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>1867</v>
       </c>
@@ -5019,7 +5018,7 @@
         <v>16830</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>1875</v>
       </c>
@@ -5051,7 +5050,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>1883</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>40288</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>1886</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>16740</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>1919</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>17510</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>1954</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>15720</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>1987</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>16750</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>1992</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>2061</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>2066</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>16922</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>2072</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>40195</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>2197</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>17132</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>2207</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>16451</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>2364</v>
       </c>
@@ -5435,7 +5434,7 @@
         <v>40553</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>2472</v>
       </c>
@@ -5467,7 +5466,7 @@
         <v>40973</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>2476</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>2488</v>
       </c>
@@ -5531,7 +5530,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>2516</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>2517</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>2529</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>15710</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>2545</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>16660</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>2576</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>2577</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>2598</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>15560</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>2603</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>17630</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>2636</v>
       </c>
@@ -5819,7 +5818,7 @@
         <v>46196</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>2638</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>2658</v>
       </c>
@@ -5883,7 +5882,7 @@
         <v>40294</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>2674</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>2676</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>2679</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>2694</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>15610</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>2727</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>2847</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>2871</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>17510</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>2896</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>45363</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>2897</v>
       </c>
@@ -6171,7 +6170,7 @@
         <v>40562</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>2902</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>2912</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>2913</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>60183</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>2928</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>2934</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>17510</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>2937</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>2954</v>
       </c>
@@ -6395,7 +6394,7 @@
         <v>41362</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>3029</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>3041</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>15530</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>3053</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>3069</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>3112</v>
       </c>
@@ -6555,7 +6554,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>3129</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>17630</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>3139</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>3140</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>17620</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>3154</v>
       </c>
@@ -6683,7 +6682,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>3178</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>3195</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>15810</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>3209</v>
       </c>
@@ -6779,7 +6778,7 @@
         <v>40294</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>3217</v>
       </c>
@@ -6811,7 +6810,7 @@
         <v>44151</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>3231</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>15720</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>3319</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>51137</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>3380</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>12620</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>3419</v>
       </c>
@@ -6939,7 +6938,7 @@
         <v>61372</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>3446</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>57731</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>3454</v>
       </c>
@@ -7003,7 +7002,7 @@
         <v>67225</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>3526</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>61265</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>3577</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>61265</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>3638</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>64411</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>3820</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>57731</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>3838</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>46125</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>3912</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>61352</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>3942</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>57731</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>3944</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>57731</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>4075</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>4190</v>
       </c>
@@ -7323,7 +7322,7 @@
         <v>64411</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>4253</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>64411</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>4339</v>
       </c>
@@ -7387,7 +7386,7 @@
         <v>41282</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>4352</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>4353</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>61328</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>4379</v>
       </c>
@@ -7483,37 +7482,39 @@
         <v>57731</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:10" s="6" customFormat="1">
+      <c r="A150" s="6">
         <v>4388</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G150" s="1">
-        <v>0</v>
-      </c>
-      <c r="H150" s="1">
-        <v>0</v>
-      </c>
-      <c r="I150" s="1">
+      <c r="G150" s="7">
+        <v>0</v>
+      </c>
+      <c r="H150" s="7">
+        <v>0</v>
+      </c>
+      <c r="I150" s="7">
         <v>55501</v>
       </c>
-      <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J150" s="7">
+        <v>55583</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>4411</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>4462</v>
       </c>
@@ -7573,9 +7574,11 @@
       <c r="I152" s="1">
         <v>61251</v>
       </c>
-      <c r="J152" s="1"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J152" s="1">
+        <v>61252</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>4470</v>
       </c>
@@ -7603,9 +7606,11 @@
       <c r="I153" s="1">
         <v>41287</v>
       </c>
-      <c r="J153" s="1"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J153" s="1">
+        <v>41283</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>4530</v>
       </c>
@@ -7637,7 +7642,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>4548</v>
       </c>
@@ -7669,7 +7674,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>4552</v>
       </c>
@@ -7701,7 +7706,7 @@
         <v>57731</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>4570</v>
       </c>
@@ -7733,7 +7738,7 @@
         <v>57731</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>4670</v>
       </c>
@@ -7765,7 +7770,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>4739</v>
       </c>
@@ -7793,9 +7798,11 @@
       <c r="I159" s="1">
         <v>17750</v>
       </c>
-      <c r="J159" s="1"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J159" s="1">
+        <v>17530</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>4787</v>
       </c>
@@ -7827,7 +7834,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>4842</v>
       </c>
@@ -7855,9 +7862,11 @@
       <c r="I161" s="1">
         <v>12345</v>
       </c>
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J161" s="1">
+        <v>17143</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>4847</v>
       </c>
@@ -7889,7 +7898,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>4876</v>
       </c>
@@ -7917,9 +7926,11 @@
       <c r="I163" s="1">
         <v>17352</v>
       </c>
-      <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J163" s="1">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>4892</v>
       </c>
@@ -7947,9 +7958,11 @@
       <c r="I164" s="1">
         <v>17772</v>
       </c>
-      <c r="J164" s="1"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J164" s="1">
+        <v>16810</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>4906</v>
       </c>
@@ -7981,7 +7994,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>4907</v>
       </c>
@@ -8013,7 +8026,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>4924</v>
       </c>
@@ -8041,9 +8054,11 @@
       <c r="I167" s="1">
         <v>61464</v>
       </c>
-      <c r="J167" s="1"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J167" s="1">
+        <v>61463</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>4959</v>
       </c>
@@ -8071,9 +8086,11 @@
       <c r="I168" s="1">
         <v>40277</v>
       </c>
-      <c r="J168" s="1"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J168" s="1">
+        <v>40227</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>4976</v>
       </c>
@@ -8101,9 +8118,11 @@
       <c r="I169" s="1">
         <v>40277</v>
       </c>
-      <c r="J169" s="1"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J169" s="1">
+        <v>40227</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>4980</v>
       </c>
@@ -8135,7 +8154,7 @@
         <v>15560</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>5010</v>
       </c>
@@ -8163,9 +8182,11 @@
       <c r="I171" s="1">
         <v>24252</v>
       </c>
-      <c r="J171" s="1"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J171" s="1">
+        <v>24251</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>5012</v>
       </c>
@@ -8193,9 +8214,11 @@
       <c r="I172" s="1">
         <v>27685</v>
       </c>
-      <c r="J172" s="1"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J172" s="1">
+        <v>27684</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>5013</v>
       </c>
@@ -8223,9 +8246,11 @@
       <c r="I173" s="1">
         <v>28783</v>
       </c>
-      <c r="J173" s="1"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J173" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>5020</v>
       </c>
@@ -8253,9 +8278,11 @@
       <c r="I174" s="1">
         <v>28553</v>
       </c>
-      <c r="J174" s="1"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J174" s="1">
+        <v>28554</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>5038</v>
       </c>
@@ -8287,7 +8314,7 @@
         <v>15720</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>5054</v>
       </c>
@@ -8315,9 +8342,11 @@
       <c r="I176" s="1">
         <v>41386</v>
       </c>
-      <c r="J176" s="1"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J176" s="1">
+        <v>41384</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>5077</v>
       </c>
@@ -8345,9 +8374,11 @@
       <c r="I177" s="1">
         <v>22731</v>
       </c>
-      <c r="J177" s="1"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J177" s="1">
+        <v>22733</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>5116</v>
       </c>
@@ -8375,9 +8406,11 @@
       <c r="I178" s="1">
         <v>17352</v>
       </c>
-      <c r="J178" s="1"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J178" s="1">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>5237</v>
       </c>
@@ -8409,7 +8442,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>5240</v>
       </c>
@@ -8437,9 +8470,11 @@
       <c r="I180" s="1">
         <v>80363</v>
       </c>
-      <c r="J180" s="1"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J180" s="1">
+        <v>80361</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>5265</v>
       </c>
@@ -8467,9 +8502,11 @@
       <c r="I181" s="1">
         <v>28783</v>
       </c>
-      <c r="J181" s="1"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J181" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>5267</v>
       </c>
@@ -8497,9 +8534,11 @@
       <c r="I182" s="1">
         <v>20272</v>
       </c>
-      <c r="J182" s="1"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J182" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>5269</v>
       </c>
@@ -8527,9 +8566,11 @@
       <c r="I183" s="1">
         <v>28783</v>
       </c>
-      <c r="J183" s="1"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J183" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>5279</v>
       </c>
@@ -8557,9 +8598,11 @@
       <c r="I184" s="1">
         <v>20272</v>
       </c>
-      <c r="J184" s="1"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J184" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>5280</v>
       </c>
@@ -8587,9 +8630,11 @@
       <c r="I185" s="1">
         <v>28783</v>
       </c>
-      <c r="J185" s="1"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J185" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>5290</v>
       </c>
@@ -8617,9 +8662,11 @@
       <c r="I186" s="1">
         <v>20272</v>
       </c>
-      <c r="J186" s="1"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J186" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>5300</v>
       </c>
@@ -8647,9 +8694,11 @@
       <c r="I187" s="1">
         <v>20272</v>
       </c>
-      <c r="J187" s="1"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J187" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>5311</v>
       </c>
@@ -8677,9 +8726,11 @@
       <c r="I188" s="1">
         <v>20272</v>
       </c>
-      <c r="J188" s="1"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J188" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>5321</v>
       </c>
@@ -8707,9 +8758,11 @@
       <c r="I189" s="1">
         <v>28783</v>
       </c>
-      <c r="J189" s="1"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J189" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>5328</v>
       </c>
@@ -8737,9 +8790,11 @@
       <c r="I190" s="1">
         <v>20272</v>
       </c>
-      <c r="J190" s="1"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J190" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>5345</v>
       </c>
@@ -8767,9 +8822,11 @@
       <c r="I191" s="1">
         <v>20272</v>
       </c>
-      <c r="J191" s="1"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J191" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192">
         <v>5351</v>
       </c>
@@ -8797,39 +8854,43 @@
       <c r="I192" s="1">
         <v>20272</v>
       </c>
-      <c r="J192" s="1"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="J192" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" s="6" customFormat="1">
+      <c r="A193" s="6">
         <v>5359</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="F193" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G193" s="1">
-        <v>0</v>
-      </c>
-      <c r="H193" s="1">
-        <v>0</v>
-      </c>
-      <c r="I193" s="1">
+      <c r="G193" s="7">
+        <v>0</v>
+      </c>
+      <c r="H193" s="7">
+        <v>0</v>
+      </c>
+      <c r="I193" s="7">
         <v>28673</v>
       </c>
-      <c r="J193" s="1"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J193" s="7">
+        <v>28671</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194">
         <v>5369</v>
       </c>
@@ -8857,9 +8918,11 @@
       <c r="I194" s="1">
         <v>20272</v>
       </c>
-      <c r="J194" s="1"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J194" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195">
         <v>5371</v>
       </c>
@@ -8887,9 +8950,11 @@
       <c r="I195" s="1">
         <v>28783</v>
       </c>
-      <c r="J195" s="1"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J195" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196">
         <v>5387</v>
       </c>
@@ -8917,9 +8982,11 @@
       <c r="I196" s="1">
         <v>29668</v>
       </c>
-      <c r="J196" s="1"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J196" s="1">
+        <v>29663</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197">
         <v>5391</v>
       </c>
@@ -8951,7 +9018,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198">
         <v>5413</v>
       </c>
@@ -8979,39 +9046,43 @@
       <c r="I198" s="1">
         <v>21169</v>
       </c>
-      <c r="J198" s="1"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="J198" s="1">
+        <v>21167</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" s="6" customFormat="1">
+      <c r="A199" s="6">
         <v>5460</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="F199" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G199" s="1">
-        <v>0</v>
-      </c>
-      <c r="H199" s="1">
-        <v>0</v>
-      </c>
-      <c r="I199" s="1">
+      <c r="G199" s="7">
+        <v>0</v>
+      </c>
+      <c r="H199" s="7">
+        <v>0</v>
+      </c>
+      <c r="I199" s="7">
         <v>28637</v>
       </c>
-      <c r="J199" s="1"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J199" s="7">
+        <v>28671</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200">
         <v>5463</v>
       </c>
@@ -9039,9 +9110,11 @@
       <c r="I200" s="1">
         <v>26455</v>
       </c>
-      <c r="J200" s="1"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J200" s="1">
+        <v>26152</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201">
         <v>5496</v>
       </c>
@@ -9073,7 +9146,7 @@
         <v>15560</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202">
         <v>5510</v>
       </c>
@@ -9101,9 +9174,11 @@
       <c r="I202" s="1">
         <v>20999</v>
       </c>
-      <c r="J202" s="1"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J202" s="1">
+        <v>20998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203">
         <v>5511</v>
       </c>
@@ -9131,9 +9206,11 @@
       <c r="I203" s="1">
         <v>22277</v>
       </c>
-      <c r="J203" s="1"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J203" s="1">
+        <v>22272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204">
         <v>5517</v>
       </c>
@@ -9161,9 +9238,11 @@
       <c r="I204" s="1">
         <v>28783</v>
       </c>
-      <c r="J204" s="1"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J204" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205">
         <v>5522</v>
       </c>
@@ -9191,9 +9270,11 @@
       <c r="I205" s="1">
         <v>29358</v>
       </c>
-      <c r="J205" s="1"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J205" s="1">
+        <v>29352</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206">
         <v>5524</v>
       </c>
@@ -9221,9 +9302,11 @@
       <c r="I206" s="1">
         <v>59460</v>
       </c>
-      <c r="J206" s="1"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J206" s="1">
+        <v>59462</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207">
         <v>5530</v>
       </c>
@@ -9255,7 +9338,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208">
         <v>5533</v>
       </c>
@@ -9283,9 +9366,11 @@
       <c r="I208" s="1">
         <v>57523</v>
       </c>
-      <c r="J208" s="1"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J208" s="1">
+        <v>57253</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209">
         <v>5548</v>
       </c>
@@ -9317,7 +9402,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210">
         <v>5567</v>
       </c>
@@ -9345,9 +9430,11 @@
       <c r="I210" s="1">
         <v>41386</v>
       </c>
-      <c r="J210" s="1"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J210" s="1">
+        <v>41384</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211">
         <v>5600</v>
       </c>
@@ -9375,9 +9462,11 @@
       <c r="I211" s="1">
         <v>28783</v>
       </c>
-      <c r="J211" s="1"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J211" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212">
         <v>5641</v>
       </c>
@@ -9405,9 +9494,11 @@
       <c r="I212" s="1">
         <v>28783</v>
       </c>
-      <c r="J212" s="1"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J212" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213">
         <v>5648</v>
       </c>
@@ -9435,9 +9526,11 @@
       <c r="I213" s="1">
         <v>20272</v>
       </c>
-      <c r="J213" s="1"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J213" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214">
         <v>5650</v>
       </c>
@@ -9465,9 +9558,11 @@
       <c r="I214" s="1">
         <v>28783</v>
       </c>
-      <c r="J214" s="1"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J214" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215">
         <v>5660</v>
       </c>
@@ -9499,7 +9594,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216">
         <v>5668</v>
       </c>
@@ -9531,7 +9626,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217">
         <v>5677</v>
       </c>
@@ -9559,9 +9654,11 @@
       <c r="I217" s="1">
         <v>20272</v>
       </c>
-      <c r="J217" s="1"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J217" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218">
         <v>5680</v>
       </c>
@@ -9589,9 +9686,11 @@
       <c r="I218" s="1">
         <v>28783</v>
       </c>
-      <c r="J218" s="1"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J218" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219">
         <v>5694</v>
       </c>
@@ -9619,9 +9718,11 @@
       <c r="I219" s="1">
         <v>20272</v>
       </c>
-      <c r="J219" s="1"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J219" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220">
         <v>5697</v>
       </c>
@@ -9649,9 +9750,11 @@
       <c r="I220" s="1">
         <v>28783</v>
       </c>
-      <c r="J220" s="1"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J220" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221">
         <v>5783</v>
       </c>
@@ -9683,7 +9786,7 @@
         <v>40294</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222">
         <v>5832</v>
       </c>
@@ -9715,7 +9818,7 @@
         <v>40294</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223">
         <v>5984</v>
       </c>
@@ -9743,9 +9846,11 @@
       <c r="I223" s="1">
         <v>28783</v>
       </c>
-      <c r="J223" s="1"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J223" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224">
         <v>5992</v>
       </c>
@@ -9773,9 +9878,11 @@
       <c r="I224" s="1">
         <v>80363</v>
       </c>
-      <c r="J224" s="1"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J224" s="1">
+        <v>80361</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225">
         <v>5996</v>
       </c>
@@ -9807,7 +9914,7 @@
         <v>15560</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226">
         <v>6021</v>
       </c>
@@ -9835,9 +9942,11 @@
       <c r="I226" s="1">
         <v>17750</v>
       </c>
-      <c r="J226" s="1"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J226" s="1">
+        <v>17530</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227">
         <v>6032</v>
       </c>
@@ -9869,7 +9978,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228">
         <v>6064</v>
       </c>
@@ -9901,7 +10010,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229">
         <v>6091</v>
       </c>
@@ -9933,7 +10042,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230">
         <v>6152</v>
       </c>
@@ -9961,9 +10070,11 @@
       <c r="I230" s="1">
         <v>17352</v>
       </c>
-      <c r="J230" s="1"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J230" s="1">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231">
         <v>6179</v>
       </c>
@@ -9995,7 +10106,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232">
         <v>6202</v>
       </c>
@@ -10023,9 +10134,11 @@
       <c r="I232" s="1">
         <v>20272</v>
       </c>
-      <c r="J232" s="1"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J232" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233">
         <v>6211</v>
       </c>
@@ -10053,9 +10166,11 @@
       <c r="I233" s="1">
         <v>57523</v>
       </c>
-      <c r="J233" s="1"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J233" s="1">
+        <v>57253</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234">
         <v>6219</v>
       </c>
@@ -10087,7 +10202,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235">
         <v>6221</v>
       </c>
@@ -10119,7 +10234,7 @@
         <v>40294</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236">
         <v>6299</v>
       </c>
@@ -10147,9 +10262,11 @@
       <c r="I236" s="1">
         <v>28296</v>
       </c>
-      <c r="J236" s="1"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J236" s="1">
+        <v>28293</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237">
         <v>6370</v>
       </c>
@@ -10181,7 +10298,7 @@
         <v>57731</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238">
         <v>6375</v>
       </c>
@@ -10209,9 +10326,11 @@
       <c r="I238" s="1">
         <v>28783</v>
       </c>
-      <c r="J238" s="1"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J238" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239">
         <v>6400</v>
       </c>
@@ -10239,9 +10358,11 @@
       <c r="I239" s="1">
         <v>20272</v>
       </c>
-      <c r="J239" s="1"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J239" s="1">
+        <v>20372</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240">
         <v>6414</v>
       </c>
@@ -10273,7 +10394,7 @@
         <v>40553</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10">
       <c r="A241">
         <v>6433</v>
       </c>
@@ -10301,9 +10422,11 @@
       <c r="I241" s="1">
         <v>30761</v>
       </c>
-      <c r="J241" s="1"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J241" s="1">
+        <v>30961</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
       <c r="A242">
         <v>6458</v>
       </c>
@@ -10335,7 +10458,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10">
       <c r="A243">
         <v>6462</v>
       </c>
@@ -10363,9 +10486,11 @@
       <c r="I243" s="1">
         <v>20985</v>
       </c>
-      <c r="J243" s="1"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J243" s="1">
+        <v>20986</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
       <c r="A244">
         <v>6494</v>
       </c>
@@ -10397,7 +10522,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10">
       <c r="A245">
         <v>6517</v>
       </c>
@@ -10425,9 +10550,11 @@
       <c r="I245" s="1">
         <v>61131</v>
       </c>
-      <c r="J245" s="1"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J245" s="1">
+        <v>61151</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
       <c r="A246">
         <v>6588</v>
       </c>
@@ -10455,9 +10582,11 @@
       <c r="I246" s="1">
         <v>16611</v>
       </c>
-      <c r="J246" s="1"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J246" s="1">
+        <v>16610</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
       <c r="A247">
         <v>6605</v>
       </c>
@@ -10485,9 +10614,11 @@
       <c r="I247" s="1">
         <v>19110</v>
       </c>
-      <c r="J247" s="1"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J247" s="1">
+        <v>15125</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248">
         <v>6651</v>
       </c>
@@ -10519,7 +10650,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10">
       <c r="A249">
         <v>6662</v>
       </c>
@@ -10551,7 +10682,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10">
       <c r="A250">
         <v>6750</v>
       </c>
@@ -10583,7 +10714,7 @@
         <v>41317</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10">
       <c r="A251">
         <v>6801</v>
       </c>
@@ -10611,9 +10742,11 @@
       <c r="I251" s="1">
         <v>17450</v>
       </c>
-      <c r="J251" s="1"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J251" s="1">
+        <v>17540</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
       <c r="A252">
         <v>6830</v>
       </c>
@@ -10641,9 +10774,11 @@
       <c r="I252" s="1">
         <v>17450</v>
       </c>
-      <c r="J252" s="1"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J252" s="1">
+        <v>17540</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253">
         <v>6836</v>
       </c>
@@ -10675,7 +10810,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10">
       <c r="A254">
         <v>6848</v>
       </c>
@@ -10707,7 +10842,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10">
       <c r="A255">
         <v>6866</v>
       </c>
@@ -10739,7 +10874,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10">
       <c r="A256">
         <v>6880</v>
       </c>
@@ -10767,9 +10902,11 @@
       <c r="I256" s="1">
         <v>17450</v>
       </c>
-      <c r="J256" s="1"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J256" s="1">
+        <v>17540</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
       <c r="A257">
         <v>6965</v>
       </c>
@@ -10797,9 +10934,11 @@
       <c r="I257" s="1">
         <v>21276</v>
       </c>
-      <c r="J257" s="1"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J257" s="1">
+        <v>21274</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
       <c r="A258">
         <v>7027</v>
       </c>
@@ -10831,7 +10970,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10">
       <c r="A259">
         <v>7056</v>
       </c>
@@ -10863,7 +11002,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10">
       <c r="A260">
         <v>7155</v>
       </c>
@@ -10891,9 +11030,11 @@
       <c r="I260" s="1">
         <v>28296</v>
       </c>
-      <c r="J260" s="1"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J260" s="1">
+        <v>28293</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
       <c r="A261">
         <v>7173</v>
       </c>
@@ -10921,9 +11062,11 @@
       <c r="I261" s="1">
         <v>28296</v>
       </c>
-      <c r="J261" s="1"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J261" s="1">
+        <v>28293</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
       <c r="A262">
         <v>7198</v>
       </c>
@@ -10955,7 +11098,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10">
       <c r="A263">
         <v>7225</v>
       </c>
@@ -10987,7 +11130,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10">
       <c r="A264">
         <v>7299</v>
       </c>
@@ -11019,7 +11162,7 @@
         <v>43261</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10">
       <c r="A265">
         <v>7300</v>
       </c>
@@ -11051,7 +11194,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10">
       <c r="A266">
         <v>7321</v>
       </c>
@@ -11083,7 +11226,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10">
       <c r="A267">
         <v>7325</v>
       </c>
@@ -11111,9 +11254,11 @@
       <c r="I267" s="1">
         <v>21160</v>
       </c>
-      <c r="J267" s="1"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J267" s="1">
+        <v>21162</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
       <c r="A268">
         <v>7417</v>
       </c>
@@ -11145,7 +11290,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10">
       <c r="A269">
         <v>7433</v>
       </c>
@@ -11177,7 +11322,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10">
       <c r="A270">
         <v>7442</v>
       </c>
@@ -11205,9 +11350,11 @@
       <c r="I270" s="1">
         <v>42421</v>
       </c>
-      <c r="J270" s="1"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J270" s="1">
+        <v>42161</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
       <c r="A271">
         <v>7449</v>
       </c>
@@ -11239,7 +11386,7 @@
         <v>40294</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10">
       <c r="A272">
         <v>7477</v>
       </c>
@@ -11271,7 +11418,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10">
       <c r="A273">
         <v>7536</v>
       </c>
@@ -11303,7 +11450,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10">
       <c r="A274">
         <v>7539</v>
       </c>
@@ -11331,9 +11478,11 @@
       <c r="I274" s="1">
         <v>22730</v>
       </c>
-      <c r="J274" s="1"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J274" s="1">
+        <v>22733</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
       <c r="A275">
         <v>7565</v>
       </c>
@@ -11361,9 +11510,11 @@
       <c r="I275" s="1">
         <v>34694</v>
       </c>
-      <c r="J275" s="1"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J275" s="1">
+        <v>34684</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
       <c r="A276">
         <v>7613</v>
       </c>
@@ -11391,9 +11542,11 @@
       <c r="I276" s="1">
         <v>20776</v>
       </c>
-      <c r="J276" s="1"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J276" s="1">
+        <v>20773</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
       <c r="A277">
         <v>7711</v>
       </c>
@@ -11425,7 +11578,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10">
       <c r="A278">
         <v>7850</v>
       </c>
@@ -11453,9 +11606,11 @@
       <c r="I278" s="1">
         <v>28783</v>
       </c>
-      <c r="J278" s="1"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J278" s="1">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
       <c r="A279">
         <v>7862</v>
       </c>
@@ -11487,7 +11642,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10">
       <c r="A280">
         <v>7863</v>
       </c>
@@ -11515,9 +11670,11 @@
       <c r="I280" s="1">
         <v>21277</v>
       </c>
-      <c r="J280" s="1"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J280" s="1">
+        <v>21273</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281">
         <v>7869</v>
       </c>
@@ -11549,7 +11706,7 @@
         <v>51137</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10">
       <c r="A282">
         <v>7913</v>
       </c>
@@ -11581,7 +11738,7 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10">
       <c r="A283">
         <v>7921</v>
       </c>
@@ -11613,7 +11770,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10">
       <c r="A284">
         <v>7978</v>
       </c>
@@ -11645,7 +11802,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10">
       <c r="A285">
         <v>7982</v>
       </c>
@@ -11677,7 +11834,7 @@
         <v>16810</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10">
       <c r="A286">
         <v>8001</v>
       </c>
@@ -11705,9 +11862,11 @@
       <c r="I286" s="1">
         <v>37317</v>
       </c>
-      <c r="J286" s="1"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J286" s="1">
+        <v>37311</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
       <c r="A287">
         <v>8003</v>
       </c>
@@ -11739,7 +11898,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10">
       <c r="A288">
         <v>8112</v>
       </c>
@@ -11771,7 +11930,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10">
       <c r="A289">
         <v>8113</v>
       </c>
@@ -11803,7 +11962,7 @@
         <v>15610</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10">
       <c r="A290">
         <v>8229</v>
       </c>
@@ -11835,7 +11994,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10">
       <c r="A291">
         <v>8234</v>
       </c>
@@ -11867,7 +12026,7 @@
         <v>17530</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10">
       <c r="A292">
         <v>8255</v>
       </c>
@@ -11899,7 +12058,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10">
       <c r="A293">
         <v>8272</v>
       </c>
@@ -11927,9 +12086,11 @@
       <c r="I293" s="1">
         <v>35352</v>
       </c>
-      <c r="J293" s="1"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J293" s="1">
+        <v>35353</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
       <c r="A294">
         <v>8291</v>
       </c>

--- a/reference/fix/company_fix/postal_error_fixed.xlsx
+++ b/reference/fix/company_fix/postal_error_fixed.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
@@ -1600,7 +1600,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -2688,18 +2688,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2871,7 +2871,7 @@
         <v>16270</v>
       </c>
       <c r="J5" s="1">
-        <v>16430</v>
+        <v>16340</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3895,7 +3895,7 @@
         <v>41326</v>
       </c>
       <c r="J37" s="1">
-        <v>41317</v>
+        <v>41371</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4055,7 +4055,7 @@
         <v>41326</v>
       </c>
       <c r="J42" s="1">
-        <v>41317</v>
+        <v>41371</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -10711,7 +10711,7 @@
         <v>41326</v>
       </c>
       <c r="J250" s="1">
-        <v>41317</v>
+        <v>41371</v>
       </c>
     </row>
     <row r="251" spans="1:10">
